--- a/_site/Data/ChildTaxCredit.xlsx
+++ b/_site/Data/ChildTaxCredit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ED3058-DE95-EA42-80F7-70F6F47A0542}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3611133-C0AC-3D41-A97C-47E3BF2608A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1260" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Question</t>
   </si>
@@ -62,21 +62,6 @@
   </si>
   <si>
     <t>If no, why don't you expect to receive it?</t>
-  </si>
-  <si>
-    <t>How do you plan to use the income from the Child Tax Credit? Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the income from the Child Tax Credit? Unpaid bills accrued during the pandemic</t>
-  </si>
-  <si>
-    <t>How do you plan to use the income from the Child Tax Credit? Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the income from the Child Tax Credit? Recreational activities (examples: vacation, summer camp)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the income from the Child Tax Credit? Savings or other investments</t>
   </si>
   <si>
     <t>How did you learn about the Child Tax Credit? Select all that apply.</t>
@@ -92,12 +77,6 @@
 •No
 •Unsure
 •Rather not say</t>
-  </si>
-  <si>
-    <t>•Yes, I expect to receive it automatically because I filed my tax returns in the last 2 years
-•Yes, I expect to receive it because I will update my information via the IRS portal
-•No
-•Unsure</t>
   </si>
   <si>
     <t>•All
@@ -107,16 +86,60 @@
 •None</t>
   </si>
   <si>
+    <t>•The Child Tax Credit is temporary
+•The Child Tax Credit is permanent for parents of children 18 and under
+•The Child Tax Credit is potentially permanent for parents of children 18 and under</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed in collaboration with the Center on Budget and Policy Priorities </t>
+  </si>
+  <si>
+    <t>•Yes, I expect to receive it automatically because I filed my tax returns in the last 2 years
+•Yes, I expect to receive it because I will sign up via the IRS portal
+•No
+•Unsure</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Unpaid bills accrued during the pandemic</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Recreational activities (examples: vacation, summer camp)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Savings or other investments</t>
+  </si>
+  <si>
     <t>•A friend or family member
 •The news
 •Social media
 •A community-based organization
-•A teacher, counselor, or other service provider</t>
-  </si>
-  <si>
-    <t>•The Child Tax Credit is temporary
-•The Child Tax Credit is permanent for parents of children 18 and under
-•The Child Tax Credit is potentially permanent for parents of children 18 and under</t>
+•A teacher, counselor, or other service provider
+• I did not know about the Child Tax Credit before this survey
+• Other, please specify</t>
+  </si>
+  <si>
+    <t>61, 63</t>
+  </si>
+  <si>
+    <t>https://www.cbpp.org/</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Household items (e.g., books, computer, etc.)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other, please specify:</t>
+  </si>
+  <si>
+    <t>61, 65</t>
+  </si>
+  <si>
+    <t>61, 63, 65</t>
   </si>
 </sst>
 </file>
@@ -522,17 +545,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="79.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="26.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" style="6" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -544,7 +568,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -559,35 +583,50 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="34">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17">
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="153">
@@ -595,127 +634,196 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5">
-        <v>61</v>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="85">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="85">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="85">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="85">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="85">
       <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="119">
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="85">
       <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="85">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="208" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="153">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="34">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="153">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="3"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="3"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5">
@@ -723,6 +831,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:5">
+      <c r="B19" s="3"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:5">
@@ -731,6 +840,13 @@
     </row>
     <row r="21" spans="2:5">
       <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="3"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="E23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/_site/Data/ChildTaxCredit.xlsx
+++ b/_site/Data/ChildTaxCredit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3611133-C0AC-3D41-A97C-47E3BF2608A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E858B2-0D43-3445-817D-2C67C1FABA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="13080" yWindow="500" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
   <si>
     <t>Question</t>
   </si>
@@ -52,25 +52,13 @@
     <t>Did your household file federal income taxes in the last two years?</t>
   </si>
   <si>
-    <t>If no, do you know how to access the IRS portal beginning July 1, 2021?</t>
-  </si>
-  <si>
-    <t>If no, do you have someone who can help you access the IRS portal beginning July 1, 2021?</t>
-  </si>
-  <si>
     <t>Do you expect to receive the Child Tax Credit?</t>
   </si>
   <si>
     <t>If no, why don't you expect to receive it?</t>
   </si>
   <si>
-    <t>How did you learn about the Child Tax Credit? Select all that apply.</t>
-  </si>
-  <si>
     <t>How would receiving the $250 or $300 monthly payment for each child in your family for the next six months affect you and your family?</t>
-  </si>
-  <si>
-    <t>Please select the answer that best represents your understanding of the Child Tax Credit:</t>
   </si>
   <si>
     <t>•Yes
@@ -86,67 +74,120 @@
 •None</t>
   </si>
   <si>
-    <t>•The Child Tax Credit is temporary
-•The Child Tax Credit is permanent for parents of children 18 and under
-•The Child Tax Credit is potentially permanent for parents of children 18 and under</t>
-  </si>
-  <si>
     <t xml:space="preserve">Developed in collaboration with the Center on Budget and Policy Priorities </t>
   </si>
   <si>
-    <t>•Yes, I expect to receive it automatically because I filed my tax returns in the last 2 years
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Unpaid bills accrued during the pandemic</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Recreational activities (examples: vacation, summer camp)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Savings or other investments</t>
+  </si>
+  <si>
+    <t>https://www.cbpp.org/</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Household items (e.g., books, computer, etc.)</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other, please specify:</t>
+  </si>
+  <si>
+    <t>61, 65, 67</t>
+  </si>
+  <si>
+    <t>If no, do you know how to access the IRS portal?</t>
+  </si>
+  <si>
+    <t>If no, do you have someone who can help you access the IRS portal?</t>
+  </si>
+  <si>
+    <t>• I have already received the Child Tax Credit
+• Yes, I expect to receive it automatically because I filed my tax returns in the last 2 years
 •Yes, I expect to receive it because I will sign up via the IRS portal
 •No
 •Unsure</t>
   </si>
   <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Unpaid bills accrued during the pandemic</t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Recreational activities (examples: vacation, summer camp)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Savings or other investments</t>
-  </si>
-  <si>
-    <t>•A friend or family member
-•The news
-•Social media
-•A community-based organization
-•A teacher, counselor, or other service provider
+    <t>61, 63, 65, 67</t>
+  </si>
+  <si>
+    <t>65, 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes
+• No
+• Unsure
+</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications)</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Unpaid bills accrued during the pandemic</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts)</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Recreational activities (examples: vacation, summer camp)</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Savings or other investments</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Household items (e.g., books, computer, etc.)</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit? Other, please specify:</t>
+  </si>
+  <si>
+    <t>You may have received this $250 or $300 per child parment from the IRS around the 15th of the month through direct deposit, a paper check, or a debit cardDid you receive a monthly Child Tax Credit payment from the IRS in the past four weeks?</t>
+  </si>
+  <si>
+    <t>Compared to one month ago, is the financial situation of you and your family now…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Better
+• Worse
+• About the same
+</t>
+  </si>
+  <si>
+    <t>How did you learn about the Child Tax Credit?</t>
+  </si>
+  <si>
+    <t>• A friend or family member
+• The news
+• Social media
+• A community-based organization
+• A teacher, counselor, or other service provider
 • I did not know about the Child Tax Credit before this survey
 • Other, please specify</t>
   </si>
   <si>
-    <t>61, 63</t>
-  </si>
-  <si>
-    <t>https://www.cbpp.org/</t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Household items (e.g., books, computer, etc.)</t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other, please specify:</t>
-  </si>
-  <si>
-    <t>61, 65</t>
-  </si>
-  <si>
-    <t>61, 63, 65</t>
+    <t>Please select the answer that best represents your understanding of the Child Tax Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• the Child Tax Credit is temporary
+• The Child Tax Credit is permanent for parents of children 17 and under
+• The Child Tax Crdit is potentially permanent for parents of children 17 and under
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +220,13 @@
       <color theme="1"/>
       <name val="ArialUnicodeMS"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -228,6 +276,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -583,270 +634,387 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="153">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="187">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="85">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="85">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="85">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="85">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="85">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="85">
       <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="68">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="85">
-      <c r="A13" s="3" t="s">
+      <c r="E13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="68">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="85">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="208" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="85">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="85">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="51">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="85">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="85">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="85">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="85">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="68">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="187">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="51">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="153">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="3"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="3"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="3"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="3"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="E23" s="5"/>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="170">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="E26" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/_site/Data/ChildTaxCredit.xlsx
+++ b/_site/Data/ChildTaxCredit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30930C2D-203D-FB48-A3D6-5A975ED02DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F617CF-E802-6044-B91F-86257E12F6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12400" yWindow="1100" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
   <si>
     <t>Question</t>
   </si>
@@ -99,15 +99,6 @@
   </si>
   <si>
     <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other, please specify:</t>
-  </si>
-  <si>
-    <t>61, 65, 67</t>
-  </si>
-  <si>
-    <t>If no, do you know how to access the IRS portal?</t>
-  </si>
-  <si>
-    <t>If no, do you have someone who can help you access the IRS portal?</t>
   </si>
   <si>
     <t>• I have already received the Child Tax Credit
@@ -177,12 +168,6 @@
 </t>
   </si>
   <si>
-    <t>69, 71, 73</t>
-  </si>
-  <si>
-    <t>73, 75</t>
-  </si>
-  <si>
     <t>61, 65, 67, 69, 73, 75</t>
   </si>
   <si>
@@ -198,10 +183,43 @@
     <t>67, 69, 73, 75</t>
   </si>
   <si>
-    <t>67, 69, 73</t>
-  </si>
-  <si>
-    <t>61, 65, 67, 69, 71, 73</t>
+    <t>61, 65, 67, 69, 73, 75, 81</t>
+  </si>
+  <si>
+    <t>Do you know how to access the IRS portal?</t>
+  </si>
+  <si>
+    <t>61, 65, 67, 81</t>
+  </si>
+  <si>
+    <t>Do you have someone who can help you access the IRS portal?</t>
+  </si>
+  <si>
+    <t>How many payments have you received so far?</t>
+  </si>
+  <si>
+    <t>69, 71, 73, 81</t>
+  </si>
+  <si>
+    <t>How much did you receive in each payment?</t>
+  </si>
+  <si>
+    <t>73, 75, 81</t>
+  </si>
+  <si>
+    <t>67, 69, 73, 81</t>
+  </si>
+  <si>
+    <t>67, 69, 73, 75, 81</t>
+  </si>
+  <si>
+    <t>61, 65, 67, 69, 71, 73, 81</t>
+  </si>
+  <si>
+    <t>To what extent has the Child Tax Credit affected your financial situation and how?</t>
+  </si>
+  <si>
+    <t>Since the Child Tax Credit checks started being sent in July, is your and your family's financial situation...</t>
   </si>
 </sst>
 </file>
@@ -646,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F23" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -698,7 +716,7 @@
     </row>
     <row r="3" spans="1:6" ht="51">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -710,13 +728,13 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="51">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -737,7 +755,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -746,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -782,7 +800,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -800,7 +818,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -818,7 +836,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -836,7 +854,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -854,7 +872,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -866,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -875,28 +893,28 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="68">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="85">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -908,13 +926,13 @@
         <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="85">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -926,13 +944,13 @@
         <v>19</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="85">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -944,13 +962,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="85">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -962,13 +980,13 @@
         <v>19</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="85">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
@@ -980,13 +998,13 @@
         <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="85">
       <c r="A20" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -998,13 +1016,13 @@
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="85">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -1016,28 +1034,28 @@
         <v>19</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="68">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="187">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>13</v>
@@ -1064,16 +1082,16 @@
         <v>19</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="170">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
@@ -1082,31 +1100,55 @@
         <v>19</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="17">
+      <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="17">
+      <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="E26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E27" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="E28" s="12" t="s">
-        <v>42</v>
+    <row r="28" spans="1:6" ht="17">
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>81</v>
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="E29" s="12" t="s">
-        <v>41</v>
+    <row r="29" spans="1:6" ht="68">
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="12">
+        <v>81</v>
       </c>
       <c r="F29" s="12"/>
     </row>

--- a/_site/Data/ChildTaxCredit.xlsx
+++ b/_site/Data/ChildTaxCredit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F617CF-E802-6044-B91F-86257E12F6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C6E1BDF-55CA-474A-AFEF-4A07533926AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="1100" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
   <si>
     <t>Question</t>
   </si>
@@ -183,43 +183,55 @@
     <t>67, 69, 73, 75</t>
   </si>
   <si>
-    <t>61, 65, 67, 69, 73, 75, 81</t>
-  </si>
-  <si>
     <t>Do you know how to access the IRS portal?</t>
   </si>
   <si>
-    <t>61, 65, 67, 81</t>
-  </si>
-  <si>
     <t>Do you have someone who can help you access the IRS portal?</t>
   </si>
   <si>
     <t>How many payments have you received so far?</t>
   </si>
   <si>
-    <t>69, 71, 73, 81</t>
-  </si>
-  <si>
     <t>How much did you receive in each payment?</t>
   </si>
   <si>
-    <t>73, 75, 81</t>
-  </si>
-  <si>
-    <t>67, 69, 73, 81</t>
-  </si>
-  <si>
-    <t>67, 69, 73, 75, 81</t>
-  </si>
-  <si>
-    <t>61, 65, 67, 69, 71, 73, 81</t>
-  </si>
-  <si>
     <t>To what extent has the Child Tax Credit affected your financial situation and how?</t>
   </si>
   <si>
     <t>Since the Child Tax Credit checks started being sent in July, is your and your family's financial situation...</t>
+  </si>
+  <si>
+    <t>How many children are your CTC payments based on?</t>
+  </si>
+  <si>
+    <t>61, 65, 67, 69, 73, 75,</t>
+  </si>
+  <si>
+    <t>61, 65, 67, 69, 73, 75, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>61, 65, 67, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>67, 69, 73, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>67, 69, 73, 75, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>61, 65, 67, 69, 71, 73, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>69, 71, 73, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>73, 75, 81, 83, 85, 87</t>
+  </si>
+  <si>
+    <t>81, 85, 87</t>
+  </si>
+  <si>
+    <t>83, 85, 87</t>
   </si>
 </sst>
 </file>
@@ -270,6 +282,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -311,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -347,6 +360,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -664,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -710,13 +724,13 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="51">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -728,13 +742,13 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="51">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -746,7 +760,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -764,7 +778,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -782,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -800,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -926,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F15" s="12"/>
     </row>
@@ -944,7 +958,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -962,7 +976,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="12"/>
     </row>
@@ -980,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F18" s="12"/>
     </row>
@@ -998,7 +1012,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F19" s="12"/>
     </row>
@@ -1016,7 +1030,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20" s="12"/>
     </row>
@@ -1034,7 +1048,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="12"/>
     </row>
@@ -1064,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F23" s="12"/>
     </row>
@@ -1100,59 +1114,68 @@
         <v>19</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="17">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>48</v>
+      <c r="E26" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="17">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>50</v>
+      <c r="E27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="17">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="12">
-        <v>81</v>
+      <c r="E28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="68">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="12">
-        <v>81</v>
+      <c r="E29" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="17">
+      <c r="A30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6">

--- a/_site/Data/ChildTaxCredit.xlsx
+++ b/_site/Data/ChildTaxCredit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C6E1BDF-55CA-474A-AFEF-4A07533926AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9BA2BEA-8D06-2A49-B03D-803E6493BF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16280" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
   <si>
     <t>Question</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>You may have received this $250 or $300 per child parment from the IRS around the 15th of the month through direct deposit, a paper check, or a debit cardDid you receive a monthly Child Tax Credit payment from the IRS in the past four weeks?</t>
-  </si>
-  <si>
-    <t>Compared to one month ago, is the financial situation of you and your family now…</t>
   </si>
   <si>
     <t xml:space="preserve">• Better
@@ -213,32 +210,74 @@
     <t>61, 65, 67, 81, 83, 85, 87</t>
   </si>
   <si>
-    <t>67, 69, 73, 81, 83, 85, 87</t>
-  </si>
-  <si>
-    <t>67, 69, 73, 75, 81, 83, 85, 87</t>
-  </si>
-  <si>
     <t>61, 65, 67, 69, 71, 73, 81, 83, 85, 87</t>
   </si>
   <si>
-    <t>69, 71, 73, 81, 83, 85, 87</t>
-  </si>
-  <si>
-    <t>73, 75, 81, 83, 85, 87</t>
-  </si>
-  <si>
     <t>81, 85, 87</t>
   </si>
   <si>
-    <t>83, 85, 87</t>
+    <t>61, 65, 67, 69, 73, 75, 81, 83, 85, 87, 89</t>
+  </si>
+  <si>
+    <t>Do you plan to file your federal income taxes in 2022?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No  
+o Unsure  
+o I'd rather not say  </t>
+  </si>
+  <si>
+    <t>69, 71, 73, 81, 83, 85, 87, 89</t>
+  </si>
+  <si>
+    <t>73, 75, 81, 83, 85, 87, 89</t>
+  </si>
+  <si>
+    <t>83, 85, 87, 89</t>
+  </si>
+  <si>
+    <t>Did you receive the monthly Child Tax Credit payments in 2021?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No 
+o No, I did not expect to receive them  </t>
+  </si>
+  <si>
+    <t>67, 69, 73, 81, 83, 85, 87, 89</t>
+  </si>
+  <si>
+    <t>67, 69, 73, 75, 81, 83, 85, 87, 89</t>
+  </si>
+  <si>
+    <t>017 Since the Child Tax Credit checks started being sent in July, is your and your family's financial situation…</t>
+  </si>
+  <si>
+    <t>Are you aware that, unless Congress decides to continue the increase in the Child Tax Credit, the last monthly payment was sent to families in December 2021?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No </t>
+  </si>
+  <si>
+    <t>Are you aware that families should file taxes this year (2022) to get the remainder of their increased 2021 Child Tax Credit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes 
+o No  </t>
+  </si>
+  <si>
+    <t>As you may know, President Biden's administration passed the American Rescue Plan Act, which temporarily increased the Child Tax Credit (CTC) in 2021 to $3,000/year per child age 6-17 and $3,600/year per child age 0-5. Most families received half of their expected 2021 CTC as monthly payments of up to $300/month per child age 0-5 and $250/month per child age 6-17 in July-December 2021.
+These families can receive the second half of their CTC - up to $1,500-$1,800 per child - by filing their taxes in 2022. Families that are eligible but did not receive the monthly payments can get their full benefit - up to $3,000-$3,600 per child - by filing taxes in 2022.
+R3.CTAX.022 How would it impact your family's financial situation if Congress decides not to continue the monthly Child Tax Credit payments?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +324,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -324,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -361,6 +406,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -676,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C63828C-283B-A940-8A21-DDF0804D85D3}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -724,31 +772,27 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="51">
+    <row r="3" spans="1:6" ht="68">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5">
+        <v>89</v>
       </c>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="51">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -756,7 +800,7 @@
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -764,35 +808,35 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="187">
+    <row r="5" spans="1:6" ht="51">
       <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="187">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="51">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -800,17 +844,17 @@
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" ht="85">
+    <row r="7" spans="1:6" ht="51">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -820,7 +864,7 @@
     </row>
     <row r="8" spans="1:6" ht="85">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -832,13 +876,13 @@
         <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="85">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -850,13 +894,13 @@
         <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="85">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -868,13 +912,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="85">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -886,67 +930,67 @@
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="85">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="68">
+    <row r="13" spans="1:6" ht="85">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="68">
       <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" ht="68">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="85">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="85">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -957,14 +1001,14 @@
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>54</v>
+      <c r="E16" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="85">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -976,13 +1020,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="85">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -994,13 +1038,13 @@
         <v>19</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="85">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
@@ -1012,13 +1056,13 @@
         <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="85">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1030,13 +1074,13 @@
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="85">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -1047,142 +1091,201 @@
       <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="85">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="68">
+      <c r="A23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="34">
+      <c r="A24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="34">
+      <c r="A25" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="187">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" ht="68">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" ht="187">
-      <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="51">
-      <c r="A24" s="3" t="s">
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="51">
+      <c r="A27" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="170">
-      <c r="A25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="17">
-      <c r="A26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="17">
-      <c r="A27" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>57</v>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="17">
+    <row r="28" spans="1:6" ht="170">
       <c r="A28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="68">
       <c r="A29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="5">
+        <v>89</v>
       </c>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="17">
       <c r="A30" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" ht="17">
+      <c r="A31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" ht="17">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" ht="68">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" ht="17">
+      <c r="A34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="F32" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:6" ht="255">
+      <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6">
+        <v>89</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="F36" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
